--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_ChangeStrategy.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_ChangeStrategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="107">
   <si>
     <t>TCID</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>938102527</t>
+  </si>
+  <si>
+    <t>changeobjective</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX8"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,16 +722,18 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="12" width="13.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="3" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="23" width="13.85546875" style="3" customWidth="1"/>
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="48" width="13.85546875" style="3" customWidth="1"/>
+    <col min="40" max="49" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -873,14 +878,17 @@
       <c r="AV1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX1" t="s">
         <v>9</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1023,12 +1031,15 @@
       <c r="AV2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX2" t="s">
         <v>10</v>
       </c>
-      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1169,12 +1180,13 @@
       </c>
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
-      <c r="AW3" t="s">
+      <c r="AW3" s="4"/>
+      <c r="AX3" t="s">
         <v>13</v>
       </c>
-      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1315,12 +1327,13 @@
       </c>
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
-      <c r="AW4" t="s">
+      <c r="AW4" s="4"/>
+      <c r="AX4" t="s">
         <v>13</v>
       </c>
-      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1461,12 +1474,13 @@
       </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
-      <c r="AW5" t="s">
+      <c r="AW5" s="4"/>
+      <c r="AX5" t="s">
         <v>13</v>
       </c>
-      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1607,12 +1621,13 @@
       </c>
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
-      <c r="AW6" t="s">
+      <c r="AW6" s="4"/>
+      <c r="AX6" t="s">
         <v>13</v>
       </c>
-      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1753,12 +1768,13 @@
       </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
-      <c r="AW7" t="s">
+      <c r="AW7" s="4"/>
+      <c r="AX7" t="s">
         <v>13</v>
       </c>
-      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1899,10 +1915,11 @@
       </c>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
-      <c r="AW8" t="s">
+      <c r="AW8" s="4"/>
+      <c r="AX8" t="s">
         <v>13</v>
       </c>
-      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_ChangeStrategy.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_ChangeStrategy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="109">
   <si>
     <t>TCID</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>changeobjective</t>
+  </si>
+  <si>
+    <t>vlogo</t>
+  </si>
+  <si>
+    <t>BuildingBenjamins-identity.png</t>
   </si>
 </sst>
 </file>
@@ -707,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AW6" sqref="AW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,10 +736,10 @@
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="49" width="13.85546875" style="3" customWidth="1"/>
+    <col min="40" max="50" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -881,14 +887,17 @@
       <c r="AW1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY1" t="s">
         <v>9</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1034,12 +1043,15 @@
       <c r="AW2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AX2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY2" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1181,12 +1193,13 @@
       <c r="AU3" s="4"/>
       <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
-      <c r="AX3" t="s">
+      <c r="AX3" s="4"/>
+      <c r="AY3" t="s">
         <v>13</v>
       </c>
-      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1328,12 +1341,13 @@
       <c r="AU4" s="4"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
-      <c r="AX4" t="s">
+      <c r="AX4" s="4"/>
+      <c r="AY4" t="s">
         <v>13</v>
       </c>
-      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1475,12 +1489,13 @@
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
       <c r="AW5" s="4"/>
-      <c r="AX5" t="s">
+      <c r="AX5" s="4"/>
+      <c r="AY5" t="s">
         <v>13</v>
       </c>
-      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1622,12 +1637,13 @@
       <c r="AU6" s="4"/>
       <c r="AV6" s="4"/>
       <c r="AW6" s="4"/>
-      <c r="AX6" t="s">
+      <c r="AX6" s="4"/>
+      <c r="AY6" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1769,12 +1785,13 @@
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
-      <c r="AX7" t="s">
+      <c r="AX7" s="4"/>
+      <c r="AY7" t="s">
         <v>13</v>
       </c>
-      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1916,10 +1933,11 @@
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
-      <c r="AX8" t="s">
+      <c r="AX8" s="4"/>
+      <c r="AY8" t="s">
         <v>13</v>
       </c>
-      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_ChangeStrategy.xlsx
+++ b/QA_Automation/Invessence/TestCases/TestData_Invessence_BB_ChangeStrategy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="265"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="115">
   <si>
     <t>TCID</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Maximizing growth</t>
   </si>
   <si>
-    <t>938102527</t>
-  </si>
-  <si>
     <t>changeobjective</t>
   </si>
   <si>
@@ -347,13 +344,34 @@
   </si>
   <si>
     <t>BuildingBenjamins-identity.png</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>radiobtnoption</t>
+  </si>
+  <si>
+    <t>TST3113</t>
+  </si>
+  <si>
+    <t>changedprojection</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>I prefer to complete the risk tolerance questionnaire again to update factors that have changed.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +386,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,13 +415,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -713,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ8"/>
+  <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AW6" sqref="AW6"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BA4" sqref="BA4:BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,10 +767,14 @@
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="50" width="13.85546875" style="3" customWidth="1"/>
+    <col min="40" max="48" width="13.85546875" style="3" customWidth="1"/>
+    <col min="49" max="49" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="25.85546875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="13.85546875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="31.42578125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,19 +920,28 @@
         <v>103</v>
       </c>
       <c r="AW1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="BA1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB1" t="s">
         <v>9</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1034,24 +1078,33 @@
         <v>91</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AU2" s="4"/>
       <c r="AV2" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY2" s="6">
+        <v>20</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB2" t="s">
         <v>10</v>
       </c>
-      <c r="AZ2" s="2"/>
+      <c r="BC2" s="2"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1194,12 +1247,15 @@
       <c r="AV3" s="4"/>
       <c r="AW3" s="4"/>
       <c r="AX3" s="4"/>
-      <c r="AY3" t="s">
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" t="s">
         <v>13</v>
       </c>
-      <c r="AZ3" s="2"/>
+      <c r="BC3" s="2"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1342,12 +1398,15 @@
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
-      <c r="AY4" t="s">
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" t="s">
         <v>13</v>
       </c>
-      <c r="AZ4" s="2"/>
+      <c r="BC4" s="2"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -1490,12 +1549,15 @@
       <c r="AV5" s="4"/>
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
-      <c r="AY5" t="s">
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="2"/>
+      <c r="BC5" s="2"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1638,12 +1700,15 @@
       <c r="AV6" s="4"/>
       <c r="AW6" s="4"/>
       <c r="AX6" s="4"/>
-      <c r="AY6" t="s">
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" t="s">
         <v>13</v>
       </c>
-      <c r="AZ6" s="2"/>
+      <c r="BC6" s="2"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -1786,12 +1851,15 @@
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
       <c r="AX7" s="4"/>
-      <c r="AY7" t="s">
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="8"/>
+      <c r="BB7" t="s">
         <v>13</v>
       </c>
-      <c r="AZ7" s="2"/>
+      <c r="BC7" s="2"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1934,22 +2002,25 @@
       <c r="AV8" s="4"/>
       <c r="AW8" s="4"/>
       <c r="AX8" s="4"/>
-      <c r="AY8" t="s">
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="8"/>
+      <c r="BB8" t="s">
         <v>13</v>
       </c>
-      <c r="AZ8" s="2"/>
+      <c r="BC8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="S2" r:id="rId2" display="d@gmail.com"/>
-    <hyperlink ref="S4" r:id="rId3"/>
-    <hyperlink ref="S3" r:id="rId4"/>
-    <hyperlink ref="S5" r:id="rId5"/>
-    <hyperlink ref="S6" r:id="rId6"/>
-    <hyperlink ref="S7" r:id="rId7"/>
-    <hyperlink ref="S8" r:id="rId8"/>
-    <hyperlink ref="B3:B8" r:id="rId9" display="http://preuat.invessence.com:8080/login.xhtml"/>
+    <hyperlink ref="S2" r:id="rId1" display="d@gmail.com"/>
+    <hyperlink ref="S4" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="S5" r:id="rId4"/>
+    <hyperlink ref="S6" r:id="rId5"/>
+    <hyperlink ref="S7" r:id="rId6"/>
+    <hyperlink ref="S8" r:id="rId7"/>
+    <hyperlink ref="B3:B8" r:id="rId8" display="http://preuat.invessence.com:8080/login.xhtml"/>
+    <hyperlink ref="B2" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
